--- a/database/httpsenchantedbookletcom.xlsx
+++ b/database/httpsenchantedbookletcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,6 +1101,18 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/chubo-turturica-village/</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsenchantedbookletcom.xlsx
+++ b/database/httpsenchantedbookletcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,30 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/jack-giants/</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Jack and the Giants</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/tamara-witch/</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Tamara and the Sea Witch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsenchantedbookletcom.xlsx
+++ b/database/httpsenchantedbookletcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,6 +1137,622 @@
         </is>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="#"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="http://enchantedbook.tumblr.com/"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Enchanted Booklet</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/author/enchantedb/"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>enchantedb</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/adventure/"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>adventure</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/caricatures-cartoons/"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Caricatures &amp;amp; Cartoons</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/children/"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>children</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/childrens-literature/"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>children's literature</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/classics/"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>classics</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/comics/"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>comics</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/crime/"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>crime</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/crime/horror/"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>horror</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/dark-gothic/"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>dark &amp;amp; gothic</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/education/"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>education</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/fables/"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>fables</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/fantasy/"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>fantasy</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/fiction/"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>fiction</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/folklore-and-literature/"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>folklore and literature</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/folklore/"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>folklore</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/historical/"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>historical</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/manuscript/"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>manuscript</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/mystery/"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>mystery</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/poetry/"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>poetry</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/science-fiction/"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>science fiction</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/sensual-romance/"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sensual/romance</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/specials/"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>special editions &amp;amp; unclassified</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/spirituality/"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>spirituality</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/theatre/"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Theatre</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/thriller/"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>thriller</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/category/young-reader/"</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>young reader</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/childrens-household-tales/"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Children’s and Household Tales</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/chubo-turturica-village/"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Chubo from Turturica Village</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/comments/feed/"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Comments feed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/contact-us/"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Contact Us</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/defence-guenevere/"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>The Defence of Guenevere and Other Poems</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/dorrie-blue-witch/"</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Dorrie and the Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/early-poems/"</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Early poems of William Morris</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/feed/"</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Entries feed</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/jack-giants/"</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Jack and the Giants</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/lord-of-rings/"</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>The Lord of the rings</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/nine-lives-cat/"</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>The Nine Lives of a Cat</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/our-books/"</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Enchanted Booklet published books</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/page/2/"</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Next Page »</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/snow-white-rose/"</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Snow White and Rose Red</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/tamara-witch/"</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tamara and the Sea Witch</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/vasilisa-beautiful/"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Vasilisa the Beautiful</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://enchantedbooklet.com/wp-login.php"</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Log in</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://presscustomizr.com/hueman-pro"</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Hueman Pro</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://twitter.com/dreamerbook"</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://wordpress.org/"</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>WordPress.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://www.facebook.com/enchantedbook/"</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/href="https://www.instagram.com/enchantedbooklet/"</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpsenchantedbookletcom.xlsx
+++ b/database/httpsenchantedbookletcom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B112"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,6 +1753,30 @@
       </c>
       <c r="B112" t="inlineStr"/>
     </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/grimms-fairy-tales/</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Grimms’ Fairy Tales</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://enchantedbooklet.com/nine-lives-cat/</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>The Nine Lives of a Cat</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
